--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1852.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1852.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3846772848830914</v>
+        <v>1.36638879776001</v>
       </c>
       <c r="B1">
-        <v>0.4847121741577321</v>
+        <v>2.772506713867188</v>
       </c>
       <c r="C1">
-        <v>0.7050085379020865</v>
+        <v>3.634111404418945</v>
       </c>
       <c r="D1">
-        <v>2.10919399958149</v>
+        <v>3.531983613967896</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.394902110099792</v>
       </c>
     </row>
   </sheetData>
